--- a/development/defines_INAV_H7_targets.xlsx
+++ b/development/defines_INAV_H7_targets.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Momo\30_RC_Planes\40_DIY ELRS and FC\13_FC STM32H7xx Gliwa\12_extract defines script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Momo\30_RC_Planes\40_DIY ELRS and FC\13_MoGliFC_git\MoGliFC\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4617506B-C709-4E4B-8803-16A12363B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62D106B-4F8F-4137-A8E2-5FE744B12625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1453,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1475,8 +1475,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1497,6 +1495,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -6109,10 +6108,10 @@
   <dimension ref="A1:V270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B192" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C207" sqref="C207:C208"/>
+      <selection pane="bottomRight" activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6120,7 +6119,7 @@
     <col min="1" max="1" width="40.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="4" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="18" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" style="5" customWidth="1"/>
     <col min="6" max="6" width="32.85546875" style="5" customWidth="1"/>
     <col min="7" max="10" width="18.28515625" style="5" customWidth="1"/>
@@ -6147,10 +6146,10 @@
       <c r="B2" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>401</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
@@ -6204,7 +6203,7 @@
         <f>COUNTA(E3:CM3)</f>
         <v>14</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="16"/>
       <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
@@ -6256,7 +6255,7 @@
         <f t="shared" ref="B4:B67" si="0">COUNTA(E4:CM4)</f>
         <v>13</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>402</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -6307,7 +6306,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>392</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -6361,19 +6360,19 @@
       <c r="C6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>392</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="5" t="s">
@@ -6418,19 +6417,18 @@
       <c r="C7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>392</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="15"/>
       <c r="I7" s="5" t="s">
         <v>52</v>
       </c>
@@ -6461,19 +6459,19 @@
       <c r="C8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>392</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="5" t="s">
         <v>56</v>
       </c>
       <c r="I8" s="5" t="s">
@@ -6509,17 +6507,17 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="21"/>
       <c r="E9" s="5" t="s">
         <v>392</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H9" s="15" t="s">
+      <c r="G9" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>392</v>
       </c>
       <c r="I9" s="5" t="s">
@@ -6567,10 +6565,9 @@
       <c r="F10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
@@ -6580,7 +6577,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>403</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -6589,10 +6586,9 @@
       <c r="F11" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H11" s="15"/>
+      <c r="G11" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M11" s="5" t="s">
         <v>392</v>
       </c>
@@ -6608,7 +6604,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>392</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -6617,10 +6613,9 @@
       <c r="F12" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H12" s="15"/>
+      <c r="G12" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="M12" s="5" t="s">
         <v>392</v>
       </c>
@@ -6639,7 +6634,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>392</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -6648,10 +6643,10 @@
       <c r="F13" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="G13" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>392</v>
       </c>
       <c r="I13" s="5" t="s">
@@ -6696,7 +6691,7 @@
       <c r="C14" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="8" t="s">
         <v>392</v>
       </c>
@@ -6748,7 +6743,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>68</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -6757,10 +6752,10 @@
       <c r="F15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="15" t="s">
+      <c r="H15" s="5" t="s">
         <v>68</v>
       </c>
       <c r="I15" s="5" t="s">
@@ -6802,7 +6797,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -6811,10 +6806,10 @@
       <c r="F16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="5" t="s">
         <v>70</v>
       </c>
       <c r="I16" s="5" t="s">
@@ -6856,7 +6851,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -6865,10 +6860,10 @@
       <c r="F17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="5" t="s">
@@ -6910,10 +6905,10 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="D18" s="20"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="9" t="s">
         <v>392</v>
       </c>
@@ -6950,7 +6945,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>403</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -6989,7 +6984,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>403</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -7028,7 +7023,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>403</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -7067,7 +7062,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="20" t="s">
         <v>403</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -7082,10 +7077,10 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D23" s="20"/>
+      <c r="C23" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="D23" s="18"/>
       <c r="E23" s="9" t="s">
         <v>392</v>
       </c>
@@ -7119,7 +7114,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="3" t="s">
         <v>403</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -7134,7 +7129,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="3" t="s">
         <v>403</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -7149,7 +7144,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="3" t="s">
         <v>403</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -7164,7 +7159,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="3" t="s">
         <v>403</v>
       </c>
       <c r="G27" s="5" t="s">
@@ -7179,8 +7174,8 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="18"/>
       <c r="E28" s="9" t="s">
         <v>392</v>
       </c>
@@ -7220,7 +7215,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="21"/>
       <c r="E29" s="6" t="s">
         <v>98</v>
       </c>
@@ -7260,7 +7255,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="21"/>
       <c r="E30" s="6" t="s">
         <v>101</v>
       </c>
@@ -7300,7 +7295,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="21"/>
       <c r="E31" s="6" t="s">
         <v>103</v>
       </c>
@@ -7340,7 +7335,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="16"/>
       <c r="G32" s="5" t="s">
         <v>77</v>
       </c>
@@ -7353,7 +7348,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="16"/>
       <c r="G33" s="5" t="s">
         <v>83</v>
       </c>
@@ -7366,7 +7361,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="16"/>
       <c r="G34" s="5" t="s">
         <v>108</v>
       </c>
@@ -7379,7 +7374,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="16"/>
       <c r="G35" s="5" t="s">
         <v>110</v>
       </c>
@@ -7395,7 +7390,7 @@
       <c r="C36" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D36" s="20"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="9" t="s">
         <v>392</v>
       </c>
@@ -7600,7 +7595,7 @@
       <c r="C40" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D40" s="20"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="9" t="s">
         <v>392</v>
       </c>
@@ -7745,7 +7740,7 @@
       <c r="C43" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="D43" s="20"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="9" t="s">
         <v>392</v>
       </c>
@@ -7909,12 +7904,12 @@
         <v>11</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="6" t="s">
         <v>132</v>
       </c>
       <c r="G47" s="5" t="s">
@@ -8085,7 +8080,7 @@
       <c r="C53" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D53" s="20"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="9" t="s">
         <v>392</v>
       </c>
@@ -8110,7 +8105,7 @@
       <c r="C54" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D54" s="20"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="9" t="s">
         <v>392</v>
       </c>
@@ -8150,7 +8145,7 @@
       <c r="C55" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D55" s="20"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="9" t="s">
         <v>392</v>
       </c>
@@ -8181,7 +8176,7 @@
       <c r="C56" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D56" s="20"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="9" t="s">
         <v>392</v>
       </c>
@@ -8221,7 +8216,7 @@
       <c r="C57" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D57" s="20"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="9" t="s">
         <v>392</v>
       </c>
@@ -8276,7 +8271,7 @@
       <c r="C58" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D58" s="20"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="9" t="s">
         <v>392</v>
       </c>
@@ -8439,7 +8434,7 @@
       <c r="C61" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D61" s="20"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="9" t="s">
         <v>392</v>
       </c>
@@ -8566,7 +8561,7 @@
       <c r="C64" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D64" s="20"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="9" t="s">
         <v>392</v>
       </c>
@@ -8807,7 +8802,7 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="16" t="s">
         <v>403</v>
       </c>
       <c r="E69" s="5" t="s">
@@ -8849,7 +8844,7 @@
       <c r="C70" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D70" s="20"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="9" t="s">
         <v>392</v>
       </c>
@@ -8958,7 +8953,7 @@
       <c r="C72" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D72" s="20"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="9" t="s">
         <v>392</v>
       </c>
@@ -9121,7 +9116,7 @@
       <c r="C75" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D75" s="20"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="9" t="s">
         <v>392</v>
       </c>
@@ -9227,7 +9222,7 @@
       <c r="C77" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D77" s="20"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="9" t="s">
         <v>392</v>
       </c>
@@ -9279,7 +9274,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="20" t="s">
         <v>403</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -9297,10 +9292,10 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="D79" s="20"/>
+      <c r="D79" s="18"/>
       <c r="G79" s="9" t="s">
         <v>392</v>
       </c>
@@ -9319,7 +9314,7 @@
       <c r="C80" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D80" s="20"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="9" t="s">
         <v>392</v>
       </c>
@@ -9482,7 +9477,7 @@
       <c r="C83" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D83" s="20"/>
+      <c r="D83" s="18"/>
       <c r="E83" s="9" t="s">
         <v>392</v>
       </c>
@@ -9645,7 +9640,7 @@
       <c r="C86" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D86" s="20"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="9" t="s">
         <v>392</v>
       </c>
@@ -9799,7 +9794,7 @@
       <c r="C89" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D89" s="20"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="9" t="s">
         <v>392</v>
       </c>
@@ -9851,7 +9846,7 @@
       <c r="C90" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="24" t="s">
+      <c r="E90" s="22" t="s">
         <v>199</v>
       </c>
       <c r="F90" s="6" t="s">
@@ -9902,7 +9897,7 @@
       <c r="C91" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E91" s="24" t="s">
+      <c r="E91" s="22" t="s">
         <v>202</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -10039,7 +10034,7 @@
       <c r="C95" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D95" s="20"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="9" t="s">
         <v>392</v>
       </c>
@@ -10202,7 +10197,7 @@
       <c r="C98" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D98" s="20"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="9" t="s">
         <v>392</v>
       </c>
@@ -10359,7 +10354,7 @@
       <c r="C101" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D101" s="20"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="9" t="s">
         <v>392</v>
       </c>
@@ -10666,7 +10661,7 @@
       <c r="C107" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D107" s="20"/>
+      <c r="D107" s="18"/>
       <c r="E107" s="9" t="s">
         <v>392</v>
       </c>
@@ -10724,7 +10719,7 @@
       <c r="E108" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="F108" s="24" t="s">
+      <c r="F108" s="22" t="s">
         <v>229</v>
       </c>
       <c r="G108" s="5" t="s">
@@ -10778,7 +10773,7 @@
       <c r="E109" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="F109" s="24" t="s">
+      <c r="F109" s="22" t="s">
         <v>232</v>
       </c>
       <c r="G109" s="5" t="s">
@@ -10832,7 +10827,7 @@
       <c r="E110" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F110" s="24" t="s">
+      <c r="F110" s="22" t="s">
         <v>238</v>
       </c>
       <c r="G110" s="5" t="s">
@@ -10886,7 +10881,7 @@
       <c r="E111" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F111" s="24" t="s">
+      <c r="F111" s="22" t="s">
         <v>243</v>
       </c>
       <c r="G111" s="5" t="s">
@@ -10940,7 +10935,7 @@
       <c r="E112" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="F112" s="24" t="s">
+      <c r="F112" s="22" t="s">
         <v>248</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -10971,7 +10966,7 @@
         <v>4</v>
       </c>
       <c r="C113" s="5"/>
-      <c r="F113" s="24" t="s">
+      <c r="F113" s="22" t="s">
         <v>252</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -10993,7 +10988,7 @@
         <v>3</v>
       </c>
       <c r="C114" s="5"/>
-      <c r="F114" s="24" t="s">
+      <c r="F114" s="22" t="s">
         <v>256</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -11209,7 +11204,7 @@
       <c r="C119" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D119" s="20"/>
+      <c r="D119" s="18"/>
       <c r="E119" s="9" t="s">
         <v>392</v>
       </c>
@@ -11255,7 +11250,7 @@
       <c r="C120" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D120" s="20"/>
+      <c r="D120" s="18"/>
       <c r="E120" s="9" t="s">
         <v>392</v>
       </c>
@@ -11301,7 +11296,7 @@
       <c r="C121" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E121" s="24" t="s">
+      <c r="E121" s="22" t="s">
         <v>239</v>
       </c>
       <c r="F121" s="6" t="s">
@@ -11346,7 +11341,7 @@
       <c r="C122" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="E122" s="22" t="s">
         <v>239</v>
       </c>
       <c r="F122" s="6" t="s">
@@ -11391,7 +11386,7 @@
       <c r="C123" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D123" s="20"/>
+      <c r="D123" s="18"/>
       <c r="E123" s="9" t="s">
         <v>392</v>
       </c>
@@ -11491,10 +11486,10 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C125" s="25" t="s">
+      <c r="C125" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="E125" s="24" t="s">
+      <c r="E125" s="22" t="s">
         <v>286</v>
       </c>
       <c r="F125" s="6" t="s">
@@ -11545,7 +11540,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C126" s="23"/>
+      <c r="C126" s="21"/>
       <c r="E126" s="5" t="s">
         <v>289</v>
       </c>
@@ -11600,7 +11595,7 @@
       <c r="C127" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D127" s="20"/>
+      <c r="D127" s="18"/>
       <c r="E127" s="9" t="s">
         <v>392</v>
       </c>
@@ -11922,7 +11917,7 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C133" s="26">
+      <c r="C133" s="24">
         <v>8</v>
       </c>
       <c r="E133" s="5" t="s">
@@ -11979,7 +11974,7 @@
       <c r="C134" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D134" s="20"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="9" t="s">
         <v>392</v>
       </c>
@@ -12034,7 +12029,7 @@
       <c r="C135" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D135" s="20"/>
+      <c r="D135" s="18"/>
       <c r="E135" s="9" t="s">
         <v>392</v>
       </c>
@@ -12155,7 +12150,7 @@
       <c r="C138" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D138" s="20"/>
+      <c r="D138" s="18"/>
       <c r="E138" s="9" t="s">
         <v>392</v>
       </c>
@@ -12186,10 +12181,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D139" s="20"/>
+      <c r="D139" s="18"/>
       <c r="E139" s="9" t="s">
         <v>392</v>
       </c>
@@ -12220,10 +12215,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C140" s="18" t="s">
+      <c r="C140" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="E140" s="24" t="s">
+      <c r="E140" s="22" t="s">
         <v>78</v>
       </c>
       <c r="F140" s="5" t="s">
@@ -12253,10 +12248,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="C141" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="E141" s="24" t="s">
+      <c r="E141" s="22" t="s">
         <v>83</v>
       </c>
       <c r="F141" s="5" t="s">
@@ -12286,10 +12281,10 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="E142" s="24" t="s">
+      <c r="E142" s="22" t="s">
         <v>108</v>
       </c>
       <c r="F142" s="5" t="s">
@@ -12319,8 +12314,8 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="20"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="18"/>
       <c r="I143" s="9" t="s">
         <v>392</v>
       </c>
@@ -12339,7 +12334,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C144" s="23"/>
+      <c r="C144" s="21"/>
       <c r="F144" s="5" t="s">
         <v>319</v>
       </c>
@@ -12379,7 +12374,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="16" t="s">
         <v>403</v>
       </c>
       <c r="F145" s="5" t="s">
@@ -12409,7 +12404,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C146" s="18" t="s">
+      <c r="C146" s="16" t="s">
         <v>403</v>
       </c>
       <c r="I146" s="5" t="s">
@@ -12427,7 +12422,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C147" s="18"/>
+      <c r="C147" s="16"/>
       <c r="I147" s="5" t="s">
         <v>140</v>
       </c>
@@ -12443,7 +12438,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C148" s="18"/>
+      <c r="C148" s="16"/>
       <c r="I148" s="5" t="s">
         <v>55</v>
       </c>
@@ -12459,7 +12454,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C149" s="18"/>
+      <c r="C149" s="16"/>
       <c r="F149" s="5" t="s">
         <v>392</v>
       </c>
@@ -12487,7 +12482,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C150" s="18"/>
+      <c r="C150" s="16"/>
       <c r="I150" s="5" t="s">
         <v>329</v>
       </c>
@@ -12506,7 +12501,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C151" s="23"/>
+      <c r="C151" s="21"/>
       <c r="F151" s="5" t="s">
         <v>392</v>
       </c>
@@ -12528,7 +12523,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C152" s="23"/>
+      <c r="C152" s="21"/>
       <c r="F152" s="5" t="s">
         <v>334</v>
       </c>
@@ -12550,7 +12545,7 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C153" s="23"/>
+      <c r="C153" s="21"/>
       <c r="F153" s="5" t="s">
         <v>392</v>
       </c>
@@ -12572,7 +12567,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C154" s="18"/>
+      <c r="C154" s="16"/>
       <c r="K154" s="5" t="s">
         <v>56</v>
       </c>
@@ -12588,7 +12583,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C155" s="18"/>
+      <c r="C155" s="16"/>
       <c r="K155" s="5" t="s">
         <v>87</v>
       </c>
@@ -12604,7 +12599,7 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C156" s="24" t="s">
+      <c r="C156" s="22" t="s">
         <v>77</v>
       </c>
       <c r="E156" s="6" t="s">
@@ -12694,7 +12689,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C159" s="27" t="s">
+      <c r="C159" s="25" t="s">
         <v>404</v>
       </c>
       <c r="K159" s="5" t="s">
@@ -12712,7 +12707,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C160" s="23"/>
+      <c r="C160" s="21"/>
       <c r="K160" s="5" t="s">
         <v>52</v>
       </c>
@@ -12728,7 +12723,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C161" s="18"/>
+      <c r="C161" s="16"/>
       <c r="N161" s="5" t="s">
         <v>392</v>
       </c>
@@ -12741,7 +12736,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C162" s="18"/>
+      <c r="C162" s="16"/>
       <c r="N162" s="5" t="s">
         <v>190</v>
       </c>
@@ -12754,7 +12749,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C163" s="18"/>
+      <c r="C163" s="16"/>
       <c r="N163" s="5" t="s">
         <v>349</v>
       </c>
@@ -12770,7 +12765,7 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="C164" s="18"/>
+      <c r="C164" s="16"/>
       <c r="N164" s="5" t="s">
         <v>349</v>
       </c>
@@ -12786,7 +12781,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C165" s="18"/>
+      <c r="C165" s="16"/>
       <c r="O165" s="5" t="s">
         <v>392</v>
       </c>
@@ -12799,7 +12794,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C166" s="18"/>
+      <c r="C166" s="16"/>
       <c r="O166" s="5" t="s">
         <v>392</v>
       </c>
@@ -12812,7 +12807,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C167" s="18"/>
+      <c r="C167" s="16"/>
       <c r="O167" s="5" t="s">
         <v>76</v>
       </c>
@@ -12825,7 +12820,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C168" s="18"/>
+      <c r="C168" s="16"/>
       <c r="O168" s="5" t="s">
         <v>81</v>
       </c>
@@ -12838,7 +12833,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C169" s="18"/>
+      <c r="C169" s="16"/>
       <c r="O169" s="5" t="s">
         <v>57</v>
       </c>
@@ -12851,7 +12846,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C170" s="18"/>
+      <c r="C170" s="16"/>
       <c r="O170" s="5" t="s">
         <v>270</v>
       </c>
@@ -12864,7 +12859,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C171" s="18"/>
+      <c r="C171" s="16"/>
       <c r="O171" s="5" t="s">
         <v>358</v>
       </c>
@@ -12877,7 +12872,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C172" s="18"/>
+      <c r="C172" s="16"/>
       <c r="O172" s="5" t="s">
         <v>276</v>
       </c>
@@ -12890,7 +12885,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C173" s="18"/>
+      <c r="C173" s="16"/>
       <c r="O173" s="5" t="s">
         <v>110</v>
       </c>
@@ -12903,7 +12898,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C174" s="18"/>
+      <c r="C174" s="16"/>
       <c r="O174" s="5" t="s">
         <v>392</v>
       </c>
@@ -12916,7 +12911,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C175" s="18"/>
+      <c r="C175" s="16"/>
       <c r="O175" s="5" t="s">
         <v>392</v>
       </c>
@@ -12929,7 +12924,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C176" s="18"/>
+      <c r="C176" s="16"/>
       <c r="O176" s="5" t="s">
         <v>392</v>
       </c>
@@ -12942,7 +12937,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C177" s="18"/>
+      <c r="C177" s="16"/>
       <c r="O177" s="5" t="s">
         <v>283</v>
       </c>
@@ -12955,7 +12950,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C178" s="18"/>
+      <c r="C178" s="16"/>
       <c r="O178" s="5" t="s">
         <v>366</v>
       </c>
@@ -12968,7 +12963,7 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="C179" s="18"/>
+      <c r="C179" s="16"/>
       <c r="O179" s="5" t="s">
         <v>368</v>
       </c>
@@ -12987,7 +12982,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C180" s="18"/>
+      <c r="C180" s="16"/>
       <c r="O180" s="5" t="s">
         <v>371</v>
       </c>
@@ -13000,7 +12995,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C181" s="18"/>
+      <c r="C181" s="16"/>
       <c r="O181" s="5" t="s">
         <v>373</v>
       </c>
@@ -13013,7 +13008,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C182" s="18"/>
+      <c r="C182" s="16"/>
       <c r="F182" s="5" t="s">
         <v>392</v>
       </c>
@@ -13026,7 +13021,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C183" s="18"/>
+      <c r="C183" s="16"/>
       <c r="F183" s="5" t="s">
         <v>79</v>
       </c>
@@ -13039,7 +13034,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C184" s="18"/>
+      <c r="C184" s="16"/>
       <c r="F184" s="5" t="s">
         <v>83</v>
       </c>
@@ -13052,7 +13047,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C185" s="18"/>
+      <c r="C185" s="16"/>
       <c r="F185" s="5" t="s">
         <v>108</v>
       </c>
@@ -13065,7 +13060,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C186" s="18"/>
+      <c r="C186" s="16"/>
       <c r="F186" s="5" t="s">
         <v>392</v>
       </c>
@@ -13078,7 +13073,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C187" s="18"/>
+      <c r="C187" s="16"/>
       <c r="F187" s="5" t="s">
         <v>380</v>
       </c>
@@ -13091,7 +13086,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C188" s="18"/>
+      <c r="C188" s="16"/>
       <c r="F188" s="5" t="s">
         <v>140</v>
       </c>
@@ -13104,7 +13099,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C189" s="18"/>
+      <c r="C189" s="16"/>
       <c r="F189" s="5" t="s">
         <v>392</v>
       </c>
@@ -13117,7 +13112,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C190" s="18"/>
+      <c r="C190" s="16"/>
       <c r="F190" s="5" t="s">
         <v>384</v>
       </c>
@@ -13130,7 +13125,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C191" s="18"/>
+      <c r="C191" s="16"/>
       <c r="F191" s="5" t="s">
         <v>384</v>
       </c>
@@ -13143,7 +13138,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C192" s="18"/>
+      <c r="C192" s="16"/>
       <c r="R192" s="5" t="s">
         <v>76</v>
       </c>
@@ -13156,7 +13151,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C193" s="18"/>
+      <c r="C193" s="16"/>
       <c r="R193" s="5" t="s">
         <v>83</v>
       </c>
@@ -13169,7 +13164,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C194" s="18"/>
+      <c r="C194" s="16"/>
       <c r="R194" s="5" t="s">
         <v>108</v>
       </c>
@@ -13182,7 +13177,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C195" s="18"/>
+      <c r="C195" s="16"/>
       <c r="R195" s="5" t="s">
         <v>92</v>
       </c>
@@ -13195,7 +13190,7 @@
         <f t="shared" ref="B196:B197" si="3">COUNTA(E196:CM196)</f>
         <v>1</v>
       </c>
-      <c r="C196" s="18"/>
+      <c r="C196" s="16"/>
       <c r="R196" s="5" t="s">
         <v>81</v>
       </c>
@@ -13208,34 +13203,34 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="C197" s="18"/>
+      <c r="C197" s="16"/>
       <c r="R197" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C198" s="18"/>
+      <c r="C198" s="16"/>
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C199" s="18"/>
+      <c r="C199" s="16"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A200" s="28" t="s">
+      <c r="A200" s="26" t="s">
         <v>423</v>
       </c>
-      <c r="B200" s="28"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
-      <c r="E200" s="28"/>
-      <c r="F200" s="28"/>
-      <c r="G200" s="28"/>
-      <c r="H200" s="28"/>
+      <c r="B200" s="26"/>
+      <c r="C200" s="26"/>
+      <c r="D200" s="26"/>
+      <c r="E200" s="26"/>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26"/>
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="C201" s="19" t="s">
+      <c r="C201" s="17" t="s">
         <v>198</v>
       </c>
       <c r="E201" s="5" t="s">
@@ -13246,7 +13241,7 @@
       <c r="A202" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="C202" s="19" t="s">
+      <c r="C202" s="17" t="s">
         <v>201</v>
       </c>
       <c r="E202" s="5" t="s">
@@ -13257,7 +13252,7 @@
       <c r="A203" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="C203" s="19" t="s">
+      <c r="C203" s="17" t="s">
         <v>187</v>
       </c>
       <c r="E203" s="5" t="s">
@@ -13268,7 +13263,7 @@
       <c r="A204" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C204" s="19" t="s">
+      <c r="C204" s="17" t="s">
         <v>190</v>
       </c>
       <c r="E204" s="5" t="s">
@@ -13279,7 +13274,7 @@
       <c r="A205" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="C205" s="19" t="s">
+      <c r="C205" s="17" t="s">
         <v>424</v>
       </c>
       <c r="E205" s="5" t="s">
@@ -13290,7 +13285,7 @@
       <c r="A206" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C206" s="19" t="s">
+      <c r="C206" s="17" t="s">
         <v>425</v>
       </c>
       <c r="E206" s="5" t="s">
@@ -13301,7 +13296,7 @@
       <c r="A207" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="C207" s="19" t="s">
+      <c r="C207" s="17" t="s">
         <v>358</v>
       </c>
       <c r="E207" s="5" t="s">
@@ -13312,7 +13307,7 @@
       <c r="A208" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="C208" s="19" t="s">
+      <c r="C208" s="17" t="s">
         <v>57</v>
       </c>
       <c r="E208" s="5" t="s">
@@ -13320,13 +13315,13 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C209" s="18"/>
+      <c r="C209" s="16"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="C210" s="19" t="s">
+      <c r="C210" s="17" t="s">
         <v>282</v>
       </c>
       <c r="E210" s="5" t="s">
@@ -13334,184 +13329,184 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C211" s="18"/>
+      <c r="C211" s="16"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C212" s="18"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C213" s="18"/>
+      <c r="C213" s="16"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C214" s="18"/>
+      <c r="C214" s="16"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C215" s="18"/>
+      <c r="C215" s="16"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C216" s="18"/>
+      <c r="C216" s="16"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C217" s="18"/>
+      <c r="C217" s="16"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C218" s="18"/>
+      <c r="C218" s="16"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C219" s="18"/>
+      <c r="C219" s="16"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C220" s="18"/>
+      <c r="C220" s="16"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C221" s="18"/>
+      <c r="C221" s="16"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C222" s="18"/>
+      <c r="C222" s="16"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C223" s="18"/>
+      <c r="C223" s="16"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C224" s="18"/>
+      <c r="C224" s="16"/>
     </row>
     <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225" s="18"/>
+      <c r="C225" s="16"/>
     </row>
     <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226" s="18"/>
+      <c r="C226" s="16"/>
     </row>
     <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227" s="18"/>
+      <c r="C227" s="16"/>
     </row>
     <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228" s="18"/>
+      <c r="C228" s="16"/>
     </row>
     <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229" s="18"/>
+      <c r="C229" s="16"/>
     </row>
     <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230" s="18"/>
+      <c r="C230" s="16"/>
     </row>
     <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231" s="18"/>
+      <c r="C231" s="16"/>
     </row>
     <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232" s="18"/>
+      <c r="C232" s="16"/>
     </row>
     <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233" s="18"/>
+      <c r="C233" s="16"/>
     </row>
     <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234" s="18"/>
+      <c r="C234" s="16"/>
     </row>
     <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235" s="18"/>
+      <c r="C235" s="16"/>
     </row>
     <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236" s="18"/>
+      <c r="C236" s="16"/>
     </row>
     <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237" s="18"/>
+      <c r="C237" s="16"/>
     </row>
     <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238" s="18"/>
+      <c r="C238" s="16"/>
     </row>
     <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239" s="18"/>
+      <c r="C239" s="16"/>
     </row>
     <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240" s="18"/>
+      <c r="C240" s="16"/>
     </row>
     <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241" s="18"/>
+      <c r="C241" s="16"/>
     </row>
     <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242" s="18"/>
+      <c r="C242" s="16"/>
     </row>
     <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243" s="18"/>
+      <c r="C243" s="16"/>
     </row>
     <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244" s="18"/>
+      <c r="C244" s="16"/>
     </row>
     <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245" s="18"/>
+      <c r="C245" s="16"/>
     </row>
     <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246" s="18"/>
+      <c r="C246" s="16"/>
     </row>
     <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247" s="18"/>
+      <c r="C247" s="16"/>
     </row>
     <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248" s="18"/>
+      <c r="C248" s="16"/>
     </row>
     <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249" s="18"/>
+      <c r="C249" s="16"/>
     </row>
     <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250" s="18"/>
+      <c r="C250" s="16"/>
     </row>
     <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251" s="18"/>
+      <c r="C251" s="16"/>
     </row>
     <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252" s="18"/>
+      <c r="C252" s="16"/>
     </row>
     <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253" s="18"/>
+      <c r="C253" s="16"/>
     </row>
     <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254" s="18"/>
+      <c r="C254" s="16"/>
     </row>
     <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255" s="18"/>
+      <c r="C255" s="16"/>
     </row>
     <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256" s="18"/>
+      <c r="C256" s="16"/>
     </row>
     <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257" s="18"/>
+      <c r="C257" s="16"/>
     </row>
     <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258" s="18"/>
+      <c r="C258" s="16"/>
     </row>
     <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259" s="18"/>
+      <c r="C259" s="16"/>
     </row>
     <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260" s="18"/>
+      <c r="C260" s="16"/>
     </row>
     <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261" s="18"/>
+      <c r="C261" s="16"/>
     </row>
     <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262" s="18"/>
+      <c r="C262" s="16"/>
     </row>
     <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263" s="18"/>
+      <c r="C263" s="16"/>
     </row>
     <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264" s="18"/>
+      <c r="C264" s="16"/>
     </row>
     <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265" s="18"/>
+      <c r="C265" s="16"/>
     </row>
     <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266" s="18"/>
+      <c r="C266" s="16"/>
     </row>
     <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267" s="18"/>
+      <c r="C267" s="16"/>
     </row>
     <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268" s="18"/>
+      <c r="C268" s="16"/>
     </row>
     <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269" s="18"/>
+      <c r="C269" s="16"/>
     </row>
     <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270" s="18"/>
+      <c r="C270" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:T197" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
